--- a/notes/Smither's waypoints.xlsx
+++ b/notes/Smither's waypoints.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5438F52F-49B7-9341-9170-ADAAAF01497D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE488EA4-2EF2-9944-B901-82AB6F9CADCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1080" windowWidth="28040" windowHeight="17440" xr2:uid="{AF3FD0E3-976B-A246-95E1-0AD9FFD00564}"/>
+    <workbookView xWindow="12220" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{AF3FD0E3-976B-A246-95E1-0AD9FFD00564}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>lat</t>
   </si>
@@ -174,9 +175,6 @@
     <t>JCHM02</t>
   </si>
   <si>
-    <t>tagges need to be removed</t>
-  </si>
-  <si>
     <t>2019-05-28T17:15:02Z</t>
   </si>
   <si>
@@ -190,6 +188,45 @@
   </si>
   <si>
     <t>Sampled 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is waypoint data for all of the field sites for Darwin's Ph.D. Project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darwin Shikra Sodhi and Adam Fong collected all the data </t>
+  </si>
+  <si>
+    <t>This excel sheet was started on March 19th 2021</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">elevation in meters </t>
+  </si>
+  <si>
+    <t>date the GPS reading was taken</t>
+  </si>
+  <si>
+    <t>Site name and number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes </t>
+  </si>
+  <si>
+    <t>tags need to be removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plots sampled in 2020 or ones sampled in 2019 for which tags need to be removed </t>
+  </si>
+  <si>
+    <t>Full name</t>
   </si>
 </sst>
 </file>
@@ -560,11 +597,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC38A8F2-1BDC-7347-8485-0F06BE36B3A2}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2749689-BC60-A54E-AC75-E7151833B9CE}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -630,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -650,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -670,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -690,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -710,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -730,7 +856,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -750,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -770,7 +896,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -790,7 +916,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -810,7 +936,7 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -830,7 +956,7 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -850,7 +976,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -870,7 +996,7 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -890,7 +1016,7 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -910,7 +1036,7 @@
         <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -930,7 +1056,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -950,7 +1076,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -970,7 +1096,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -990,7 +1116,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1004,13 +1130,13 @@
         <v>1051.4720460000001</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1024,13 +1150,13 @@
         <v>1027.673706</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
